--- a/biology/Botanique/Collabieae/Collabieae.xlsx
+++ b/biology/Botanique/Collabieae/Collabieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Collabieae sont une tribu de la sous-famille des Epidendroideae, dans la famille des Orchidaceae. Le genre type est Collabium. Il est très vraisemblable que la classification actuelle ne soit pas définitive.
-Depuis 2005, des publications scientifiques[2] considèrent que la tribu des Collabieae inclut le genre Acanthephippium ainsi que les sous-tribus Collabiinae et Phaiinae.
+Depuis 2005, des publications scientifiques considèrent que la tribu des Collabieae inclut le genre Acanthephippium ainsi que les sous-tribus Collabiinae et Phaiinae.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon la classification APG III (2009)
-Tribu Collabieae [3] :
+          <t>Selon la classification APG III (2009)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tribu Collabieae  :
 Acanthephippium (Blume, 1825)
 Ancistrochilus (Rolfe, 1897)
 Calanthe (R.Br., 1821)
@@ -533,9 +550,43 @@
 Pilophyllum (Schltr., 1914)
 Plocoglottis (Blume, 1825)
 Spathoglottis (Blume, 1825)
-Tainia (Blume, 1825)
-Selon la classification APG II (2003)
-Sous-tribu Collabiinae NCBI  (24 jui. 2011)[4] :
+Tainia (Blume, 1825)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Collabieae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collabieae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon la classification APG II (2003)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous-tribu Collabiinae NCBI  (24 jui. 2011) :
 Acanthephippium
 Ancistrochilus
 Calanthe
@@ -546,9 +597,43 @@
 Phaius
 Plocoglottis
 Spathoglottis
-Tainia
-Selon la classification de Dressler (1993)
-Chrysoglossum
+Tainia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Collabieae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collabieae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon la classification de Dressler (1993)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chrysoglossum
 Collabium
 Diglyphosa</t>
         </is>
